--- a/pyfair/static/data_entry.xlsx
+++ b/pyfair/static/data_entry.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theon\development\pyfair\pyfair\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B835C799-860D-48B7-B90D-5A03A3C13052}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB85E3C-C187-4AE0-A548-A3F33C3B29DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{76265505-8B04-4CE4-A2A8-932A5C405433}"/>
   </bookViews>
   <sheets>
-    <sheet name="single" sheetId="2" r:id="rId1"/>
+    <sheet name="overview" sheetId="3" r:id="rId1"/>
+    <sheet name="entry_1" sheetId="5" r:id="rId2"/>
+    <sheet name="entry_2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="37">
   <si>
     <t>Loss Event Frequency</t>
   </si>
@@ -101,12 +103,54 @@
   <si>
     <t>Author</t>
   </si>
+  <si>
+    <t>Number of Simulations</t>
+  </si>
+  <si>
+    <t>Random Seed</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>The optional combinations for model inputs</t>
+  </si>
+  <si>
+    <t>mean, stdev</t>
+  </si>
+  <si>
+    <t>Sets all of the simulation items to a constant value.</t>
+  </si>
+  <si>
+    <t>Sets a portion of the sample to one and the remainder to zero based on probablity "p" (Bernoulli distribution). E.g. with a sample size of 100 and a p of .35, on average you will receive 35 one values and 65 zero values.</t>
+  </si>
+  <si>
+    <t>Creates a normal distribution.</t>
+  </si>
+  <si>
+    <t>low, mode, and high (and optionally gamma)</t>
+  </si>
+  <si>
+    <t>Creates a PERT distribution based between the low and high parameters, with the skew being determined by mode. This can also take a gamma argument (BetaPERT) in order to tune narrowness.</t>
+  </si>
+  <si>
+    <t>Meta Model Name</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Target Output</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +158,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -131,12 +207,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,35 +313,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A28FB9CD-E39C-461F-9301-EDEA693DA442}" name="Table2" displayName="Table2" ref="A6:H16" totalsRowShown="0">
-  <autoFilter ref="A6:H16" xr:uid="{4B94485B-1C9A-4A5A-9479-DF440CA982E4}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A51EBDDB-B57B-4EEF-B467-CABDC083944F}" name="Target Name"/>
-    <tableColumn id="2" xr3:uid="{8F88C8A7-A72E-4B73-A058-E2FFA44163D9}" name="low"/>
-    <tableColumn id="3" xr3:uid="{502C0C83-9202-47AF-9A9D-6322D9E5809B}" name="mode"/>
-    <tableColumn id="4" xr3:uid="{DC60155E-4BCE-4607-AFE6-E5654CFE2FBA}" name="high"/>
-    <tableColumn id="5" xr3:uid="{B998D5F0-0B8B-4031-A8DD-46CE20BC6BCB}" name="mean"/>
-    <tableColumn id="6" xr3:uid="{65A30A12-43A0-42D7-A44C-1869E78A2257}" name="stdev"/>
-    <tableColumn id="7" xr3:uid="{8A1DFEB1-BAF6-4796-AFE2-8BA9605B343D}" name="p"/>
-    <tableColumn id="8" xr3:uid="{B3FE2E04-40CD-41C9-AB7A-7F34F32175BD}" name="constant"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0397550E-4DA2-4691-B4C3-1D0DF9F285C0}" name="Table4" displayName="Table4" ref="J6:L16" totalsRowShown="0">
-  <autoFilter ref="J6:L16" xr:uid="{C46061B4-F243-4870-A327-EBE76C6B5735}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A3ACF41E-94A3-48A8-BAFA-71D867A91517}" name="Loss Name"/>
-    <tableColumn id="2" xr3:uid="{990D7A82-BF33-4434-A0B2-284C4FBDC544}" name="Secondary Loss Event Frequency"/>
-    <tableColumn id="3" xr3:uid="{175BC4F5-D1BB-4EC9-AF07-AD0A8508FA53}" name="Secondary Loss Event Magnitude"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,124 +611,4072 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC23BC9-4E25-4137-80DA-C2D411A4EAF6}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA18B4-909D-485F-BD49-3CA8F97B191F}">
+  <dimension ref="A4:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="10" max="10" width="30.26953125" customWidth="1"/>
-    <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="30.90625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78B95C9-ABB7-49B9-AE9D-BEB6D66B5BF4}">
+  <dimension ref="A1:O119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="15" max="15" width="30.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="116" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B2" s="2"/>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="11"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="11"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="14"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="11"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="5"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D15" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="14"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D17" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="14"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D18" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="14"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="14"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D22" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="11"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="5"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="11"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="14"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="14"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="11"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="14"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="11"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="14"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="11"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="5"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="D38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="11"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="14"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="14"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="14"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="11"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="14"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="11"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="14"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="14"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="11"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="5"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="D50" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="11"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="14"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="11"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="11"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="14"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="11"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="11"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D55" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="14"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="11"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="11"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="14"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="11"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="11"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="5"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="D62" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="11"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="11"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D63" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="14"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="14"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="11"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="11"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D65" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="14"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="14"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="11"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="11"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D67" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="14"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="14"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D68" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="11"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="11"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D69" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="14"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="14"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D70" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="11"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="11"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="5"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="D74" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="11"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="11"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D75" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="14"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="14"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="11"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="11"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D77" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="14"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="14"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D78" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="11"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="11"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D79" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="14"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="14"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="11"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="11"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D81" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="14"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="14"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="11"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="11"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="5"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="D86" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="11"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="11"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D87" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="14"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="14"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D88" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="11"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="11"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D89" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="14"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="14"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D90" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="11"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="11"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D91" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="14"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="14"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D92" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="11"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="11"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D93" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="14"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="14"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D94" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="11"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="11"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="5"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A97" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="D98" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="11"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="11"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D99" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="14"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="14"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="11"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="11"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D101" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="14"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D102" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="11"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="11"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D103" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="14"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="14"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="11"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="11"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D105" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="14"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="14"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="11"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="11"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="5"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="5"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A109" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="D110" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="11"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="11"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D111" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="14"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="14"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D112" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="11"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="11"/>
+    </row>
+    <row r="113" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D113" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="14"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="14"/>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D114" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="11"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="11"/>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D115" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="14"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="14"/>
+    </row>
+    <row r="116" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D116" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="11"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="11"/>
+    </row>
+    <row r="117" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D117" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="14"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="14"/>
+    </row>
+    <row r="118" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D118" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="11"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="11"/>
+    </row>
+    <row r="119" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="5"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BCB04A-7E08-4B59-BD88-58B67C9F3D5F}">
+  <dimension ref="A1:O119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="15" max="15" width="30.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="11"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="11"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="14"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="11"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="5"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="14"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="14"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="14"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="14"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="11"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="5"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="11"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="14"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="14"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="11"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="14"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="11"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="14"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="11"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="5"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="D38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="11"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="14"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="14"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="14"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="11"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="14"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="11"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="14"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="14"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="11"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="5"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="D50" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="11"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="14"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="11"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="11"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="14"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="11"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="11"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D55" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="14"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="11"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="11"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="14"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="11"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="11"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="5"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="D62" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="11"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="11"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D63" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="14"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="14"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="11"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="11"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D65" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="14"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="14"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="11"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="11"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D67" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="14"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="14"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D68" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="11"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="11"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D69" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="14"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="14"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D70" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="11"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="11"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="5"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="D74" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="11"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="11"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D75" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="14"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="14"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="11"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="11"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D77" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="14"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="14"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D78" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="11"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="11"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D79" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="14"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="14"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="11"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="11"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D81" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="14"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="14"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="11"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="11"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="5"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="D86" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="11"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="11"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D87" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="14"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="14"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D88" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="11"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="11"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D89" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="14"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="14"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D90" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="11"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="11"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D91" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="14"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="14"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D92" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="11"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="11"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D93" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="14"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="14"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D94" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="11"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="11"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="5"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A97" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="D98" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="11"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="11"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D99" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="14"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="14"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="11"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="11"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D101" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="14"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="14"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D102" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="11"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="11"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D103" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="14"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="14"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="11"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="11"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D105" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="14"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="14"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="11"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="11"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="5"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="5"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A109" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="D110" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="11"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="11"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D111" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="14"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="14"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D112" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="11"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="11"/>
+    </row>
+    <row r="113" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D113" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="14"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="14"/>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D114" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="11"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="11"/>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D115" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="14"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="14"/>
+    </row>
+    <row r="116" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D116" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="11"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="11"/>
+    </row>
+    <row r="117" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D117" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="14"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="14"/>
+    </row>
+    <row r="118" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D118" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="11"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="11"/>
+    </row>
+    <row r="119" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="5"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pyfair/static/data_entry.xlsx
+++ b/pyfair/static/data_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theon\development\pyfair\pyfair\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB85E3C-C187-4AE0-A548-A3F33C3B29DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC115E-3BBB-45E9-B814-ECBEE21C5BFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{76265505-8B04-4CE4-A2A8-932A5C405433}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19030" windowHeight="14070" xr2:uid="{76265505-8B04-4CE4-A2A8-932A5C405433}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="34">
   <si>
     <t>Loss Event Frequency</t>
   </si>
@@ -116,34 +116,76 @@
     <t>Value</t>
   </si>
   <si>
-    <t>The optional combinations for model inputs</t>
+    <t>Target Output</t>
   </si>
   <si>
-    <t>mean, stdev</t>
+    <t>gamma</t>
   </si>
   <si>
-    <t>Sets all of the simulation items to a constant value.</t>
+    <t xml:space="preserve">
+==================
+Parameter Notes
+==================
+There are 4 types of value distributions:
+    1) BetaPERT: which requires a "low", "mode", and "high" value. It optionally can take a "gamma" parameter. It creates a beta distribution between the low and high parameters;
+    2) Normal: which requires "mean" and "stdev" parameters. It creates a normal distribution around a mean value;
+    3) Bernoulli: which requires a "p" parameter. It creates a collection of ones and zeros with the probability of one being selected being given by "p". It is used only when directly supplying "Vulnerability"; and,
+    4) Constant: which takes the "constant" keyword. This generates the same value for each simulation.
+You can only create one distribution type at a time, and all required parameters must be supplied.</t>
   </si>
   <si>
-    <t>Sets a portion of the sample to one and the remainder to zero based on probablity "p" (Bernoulli distribution). E.g. with a sample size of 100 and a p of .35, on average you will receive 35 one values and 65 zero values.</t>
+    <t xml:space="preserve">Instructions
+This spreadsheet is a data entry template for a FAIR Monte Carlo simulations.
+The user-editable fields are described below.
+</t>
   </si>
   <si>
-    <t>Creates a normal distribution.</t>
+    <t xml:space="preserve">
+==================
+Tab 1
+==================
+The first tab provides and overview and instructions for completing the model as well as 4 fields:
+    1) "Author": is the name of the individual running the simulation;
+    2) "Number of Simulations": is the number of simualtions being run for our analysis (and generally should be left at around 1000 absent a good reason to change it);
+    3) "Random Seed": is the seed value for the pseudorandom number generator (and generally should be left at 42); and,
+    4) "Target Output": is the location in which the output should be stored (and should have an '.html' file suffix).</t>
   </si>
   <si>
-    <t>low, mode, and high (and optionally gamma)</t>
+    <t xml:space="preserve">
+==================
+Tab 3
+==================
+This tab, if filled out, generates a model in the same manner as Tab 2. The difference is that if a metamodel is created with Tab 3, it will be compared with the model in Tab 2. It is an error to fill out Tab 3 without filling out Tab 2.</t>
   </si>
   <si>
-    <t>Creates a PERT distribution based between the low and high parameters, with the skew being determined by mode. This can also take a gamma argument (BetaPERT) in order to tune narrowness.</t>
-  </si>
-  <si>
-    <t>Meta Model Name</t>
-  </si>
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>Target Output</t>
+    <t xml:space="preserve">
+==================
+Tab 2
+==================
+Note: this section is long. You may have to scroll.
+Tab 2 is used to create a metamodel with a name identifier equal to the tab's name. E.g. if left as the default "entry_1", it will create a metamodel named "entry_1".
+This metamodel is created with up to 10 models with values supplied by a given user. These models are then aggregated into a metamodel. In other words you could have nation-state reputational risk plus hacktivist risk plus insider risk.
+Each model data entry area is 11 rows tall and 16 columns wide. They are separated by a single blank row.
+The parameters that can be supplied for each model are as follows.
+Section 1: Columns A -&gt; B
+"Model Name": this is simply an identifier for your model component.
+Section 2: Columns D -&gt; L
+This section is used to generate your random values for:
+    Loss Event Frequency
+    Threat Event Frequency
+    Vulnerability *
+    Contact
+    Action *
+    Threat Capability *
+    Control Strength *
+    Loss Magnitude
+    Primary Loss
+    Secondary Loss
+* Denotes items that fall on or between 0 and 1 (e.g. .33) due to the FAIR model
+For each of these items you can generate your own distributions (see "Parameter Notes" below). For example, if you wanted your values for Loss Magnitude generated by a normal distribution centered around 500 wtih a standard deviation of 20, you would put 20 in for "stdev" and 500 for "mean".
+If you don't supply sufficient information you will get an error. If you supply too much information, your superfluous information will be ignored.
+Section 3: Columns N -&gt; P
+In the event you do not want to supply "Secondary Loss" with a simple distribution and would rather generate it via the use of components, you can use the table from to P. For each loss you wish to add, you need to supply a "Loss Name", a "Secondary Loss Event Frequency", and a "Secondary Loss Event Magnitude". For example, one could supply: "Reputational Risk", 1 and $500,000. The risks will stack and be calculated in aggregate.</t>
   </si>
 </sst>
 </file>
@@ -279,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -298,6 +340,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,118 +660,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA18B4-909D-485F-BD49-3CA8F97B191F}">
-  <dimension ref="A4:G23"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="108.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="C8" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="19" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -733,24 +741,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78B95C9-ABB7-49B9-AE9D-BEB6D66B5BF4}">
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.7265625" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
     <col min="4" max="4" width="24.453125" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
-    <col min="13" max="13" width="30.26953125" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="15" width="30.90625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="30.26953125" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="16" max="16" width="30.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -770,28 +776,31 @@
         <v>11</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -804,13 +813,14 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="11"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J2" s="10"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="11"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
@@ -819,13 +829,14 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J3" s="13"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
@@ -835,12 +846,13 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
@@ -849,13 +861,14 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J5" s="13"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
@@ -864,13 +877,14 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="11"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="11"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
@@ -879,13 +893,14 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J7" s="13"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
@@ -894,13 +909,14 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="11"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="11"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
@@ -909,13 +925,14 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J9" s="13"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="14"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
@@ -924,13 +941,14 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="11"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="11"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
@@ -939,13 +957,14 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="5"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J11" s="4"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="5"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -965,28 +984,31 @@
         <v>11</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -999,13 +1021,14 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="11"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J14" s="10"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="11"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D15" s="12" t="s">
         <v>1</v>
       </c>
@@ -1014,13 +1037,14 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="14"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J15" s="13"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="14"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
@@ -1030,12 +1054,13 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D17" s="12" t="s">
         <v>3</v>
       </c>
@@ -1044,13 +1069,14 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J17" s="13"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="14"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D18" s="9" t="s">
         <v>4</v>
       </c>
@@ -1059,13 +1085,14 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="11"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J18" s="10"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
@@ -1074,13 +1101,14 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J19" s="13"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="14"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
@@ -1089,13 +1117,14 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="11"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J20" s="10"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="11"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
@@ -1104,13 +1133,14 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="14"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J21" s="13"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D22" s="9" t="s">
         <v>8</v>
       </c>
@@ -1119,13 +1149,14 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="11"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J22" s="10"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="11"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1134,13 +1165,14 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="5"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J23" s="4"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="5"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -1160,28 +1192,31 @@
         <v>11</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="N25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="P25" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1194,13 +1229,14 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="11"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J26" s="10"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="11"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D27" s="12" t="s">
         <v>1</v>
       </c>
@@ -1209,13 +1245,14 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="14"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J27" s="13"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="14"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1225,12 +1262,13 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D29" s="12" t="s">
         <v>3</v>
       </c>
@@ -1239,13 +1277,14 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="14"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J29" s="13"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="14"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D30" s="9" t="s">
         <v>4</v>
       </c>
@@ -1254,13 +1293,14 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="11"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J30" s="10"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="11"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D31" s="12" t="s">
         <v>5</v>
       </c>
@@ -1269,13 +1309,14 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="14"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J31" s="13"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="14"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D32" s="9" t="s">
         <v>6</v>
       </c>
@@ -1284,13 +1325,14 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="11"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J32" s="10"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="11"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D33" s="12" t="s">
         <v>7</v>
       </c>
@@ -1299,13 +1341,14 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="14"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J33" s="13"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="14"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D34" s="9" t="s">
         <v>8</v>
       </c>
@@ -1314,13 +1357,14 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="11"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J34" s="10"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="11"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1329,13 +1373,14 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="5"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J35" s="4"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="5"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
@@ -1355,28 +1400,31 @@
         <v>11</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="L37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="N37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="O37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O37" s="8" t="s">
+      <c r="P37" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -1389,13 +1437,14 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="11"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J38" s="10"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="11"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D39" s="12" t="s">
         <v>1</v>
       </c>
@@ -1404,13 +1453,14 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="14"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J39" s="13"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="14"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D40" s="9" t="s">
         <v>2</v>
       </c>
@@ -1420,12 +1470,13 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="11"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D41" s="12" t="s">
         <v>3</v>
       </c>
@@ -1434,13 +1485,14 @@
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="14"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="14"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J41" s="13"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="14"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D42" s="9" t="s">
         <v>4</v>
       </c>
@@ -1449,13 +1501,14 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="11"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="11"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J42" s="10"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="11"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D43" s="12" t="s">
         <v>5</v>
       </c>
@@ -1464,13 +1517,14 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="14"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="14"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J43" s="13"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="14"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D44" s="9" t="s">
         <v>6</v>
       </c>
@@ -1479,13 +1533,14 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="11"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J44" s="10"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="11"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D45" s="12" t="s">
         <v>7</v>
       </c>
@@ -1494,13 +1549,14 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="14"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="14"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J45" s="13"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="14"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D46" s="9" t="s">
         <v>8</v>
       </c>
@@ -1509,13 +1565,14 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="11"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="11"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J46" s="10"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="11"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D47" s="3" t="s">
         <v>16</v>
       </c>
@@ -1524,13 +1581,14 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="5"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J47" s="4"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="5"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>25</v>
       </c>
@@ -1550,28 +1608,31 @@
         <v>11</v>
       </c>
       <c r="H49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="L49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="N49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="O49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O49" s="8" t="s">
+      <c r="P49" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -1584,13 +1645,14 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="11"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="11"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J50" s="10"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="11"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D51" s="12" t="s">
         <v>1</v>
       </c>
@@ -1599,13 +1661,14 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="14"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="14"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J51" s="13"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="14"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D52" s="9" t="s">
         <v>2</v>
       </c>
@@ -1615,12 +1678,13 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="11"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="11"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K52" s="10"/>
+      <c r="L52" s="11"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D53" s="12" t="s">
         <v>3</v>
       </c>
@@ -1629,13 +1693,14 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="14"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="14"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J53" s="13"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="14"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D54" s="9" t="s">
         <v>4</v>
       </c>
@@ -1644,13 +1709,14 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="11"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="11"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J54" s="10"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="11"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D55" s="12" t="s">
         <v>5</v>
       </c>
@@ -1659,13 +1725,14 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="14"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="14"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J55" s="13"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="14"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="14"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D56" s="9" t="s">
         <v>6</v>
       </c>
@@ -1674,13 +1741,14 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="11"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="11"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J56" s="10"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="11"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D57" s="12" t="s">
         <v>7</v>
       </c>
@@ -1689,13 +1757,14 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="14"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="14"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J57" s="13"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="14"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D58" s="9" t="s">
         <v>8</v>
       </c>
@@ -1704,13 +1773,14 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="11"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="11"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J58" s="10"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="11"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D59" s="3" t="s">
         <v>16</v>
       </c>
@@ -1719,13 +1789,14 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="5"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="5"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J59" s="4"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="5"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="5"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>25</v>
       </c>
@@ -1745,28 +1816,31 @@
         <v>11</v>
       </c>
       <c r="H61" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="L61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="6" t="s">
+      <c r="N61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="O61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="P61" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -1779,13 +1853,14 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="11"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="11"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J62" s="10"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="11"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D63" s="12" t="s">
         <v>1</v>
       </c>
@@ -1794,13 +1869,14 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="14"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="14"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J63" s="13"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="14"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="14"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D64" s="9" t="s">
         <v>2</v>
       </c>
@@ -1810,12 +1886,13 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
-      <c r="K64" s="11"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="11"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K64" s="10"/>
+      <c r="L64" s="11"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D65" s="12" t="s">
         <v>3</v>
       </c>
@@ -1824,13 +1901,14 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="14"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="14"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J65" s="13"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="14"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="14"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D66" s="9" t="s">
         <v>4</v>
       </c>
@@ -1839,13 +1917,14 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="11"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="11"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J66" s="10"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="11"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D67" s="12" t="s">
         <v>5</v>
       </c>
@@ -1854,13 +1933,14 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="14"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="14"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J67" s="13"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="14"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="14"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D68" s="9" t="s">
         <v>6</v>
       </c>
@@ -1869,13 +1949,14 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="11"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="11"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J68" s="10"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="11"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D69" s="12" t="s">
         <v>7</v>
       </c>
@@ -1884,13 +1965,14 @@
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="14"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="14"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J69" s="13"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="14"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="14"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D70" s="9" t="s">
         <v>8</v>
       </c>
@@ -1899,13 +1981,14 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="11"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="11"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J70" s="10"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="11"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D71" s="3" t="s">
         <v>16</v>
       </c>
@@ -1914,13 +1997,14 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="5"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="5"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J71" s="4"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="5"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="5"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>25</v>
       </c>
@@ -1940,28 +2024,31 @@
         <v>11</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="J73" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="K73" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="L73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M73" s="6" t="s">
+      <c r="N73" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N73" s="7" t="s">
+      <c r="O73" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="P73" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -1974,13 +2061,14 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="11"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="11"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J74" s="10"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="11"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D75" s="12" t="s">
         <v>1</v>
       </c>
@@ -1989,13 +2077,14 @@
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="14"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="14"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J75" s="13"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="14"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="14"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D76" s="9" t="s">
         <v>2</v>
       </c>
@@ -2005,12 +2094,13 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
-      <c r="K76" s="11"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="11"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K76" s="10"/>
+      <c r="L76" s="11"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D77" s="12" t="s">
         <v>3</v>
       </c>
@@ -2019,13 +2109,14 @@
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="14"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="14"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J77" s="13"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="14"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="14"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D78" s="9" t="s">
         <v>4</v>
       </c>
@@ -2034,13 +2125,14 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="11"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="11"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J78" s="10"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="11"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D79" s="12" t="s">
         <v>5</v>
       </c>
@@ -2049,13 +2141,14 @@
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="14"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="14"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J79" s="13"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="14"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="14"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D80" s="9" t="s">
         <v>6</v>
       </c>
@@ -2064,13 +2157,14 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="11"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="11"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J80" s="10"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="11"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D81" s="12" t="s">
         <v>7</v>
       </c>
@@ -2079,13 +2173,14 @@
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="14"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="14"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J81" s="13"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="14"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="14"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D82" s="9" t="s">
         <v>8</v>
       </c>
@@ -2094,13 +2189,14 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="11"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="11"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J82" s="10"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="11"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D83" s="3" t="s">
         <v>16</v>
       </c>
@@ -2109,13 +2205,14 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="5"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="5"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J83" s="4"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="5"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>25</v>
       </c>
@@ -2135,28 +2232,31 @@
         <v>11</v>
       </c>
       <c r="H85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="K85" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="L85" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M85" s="6" t="s">
+      <c r="N85" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N85" s="7" t="s">
+      <c r="O85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O85" s="8" t="s">
+      <c r="P85" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -2169,13 +2269,14 @@
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="11"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="11"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J86" s="10"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="11"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D87" s="12" t="s">
         <v>1</v>
       </c>
@@ -2184,13 +2285,14 @@
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="14"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="14"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J87" s="13"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="14"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="14"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D88" s="9" t="s">
         <v>2</v>
       </c>
@@ -2200,12 +2302,13 @@
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
-      <c r="K88" s="11"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="11"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K88" s="10"/>
+      <c r="L88" s="11"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D89" s="12" t="s">
         <v>3</v>
       </c>
@@ -2214,13 +2317,14 @@
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="14"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="14"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J89" s="13"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="14"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="14"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D90" s="9" t="s">
         <v>4</v>
       </c>
@@ -2229,13 +2333,14 @@
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="11"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="11"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J90" s="10"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="11"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="11"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D91" s="12" t="s">
         <v>5</v>
       </c>
@@ -2244,13 +2349,14 @@
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="14"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="14"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J91" s="13"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="14"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="14"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D92" s="9" t="s">
         <v>6</v>
       </c>
@@ -2259,13 +2365,14 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="11"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="11"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J92" s="10"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="11"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D93" s="12" t="s">
         <v>7</v>
       </c>
@@ -2274,13 +2381,14 @@
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="14"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="14"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J93" s="13"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="14"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="14"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D94" s="9" t="s">
         <v>8</v>
       </c>
@@ -2289,13 +2397,14 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="11"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="11"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J94" s="10"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="11"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D95" s="3" t="s">
         <v>16</v>
       </c>
@@ -2304,13 +2413,14 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="5"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="5"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J95" s="4"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="5"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="5"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>25</v>
       </c>
@@ -2330,28 +2440,31 @@
         <v>11</v>
       </c>
       <c r="H97" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="J97" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="K97" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="L97" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M97" s="6" t="s">
+      <c r="N97" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N97" s="7" t="s">
+      <c r="O97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O97" s="8" t="s">
+      <c r="P97" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
@@ -2364,13 +2477,14 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="11"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="11"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J98" s="10"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="11"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D99" s="12" t="s">
         <v>1</v>
       </c>
@@ -2379,13 +2493,14 @@
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="14"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="14"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J99" s="13"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="14"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="14"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D100" s="9" t="s">
         <v>2</v>
       </c>
@@ -2395,12 +2510,13 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="11"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="11"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K100" s="10"/>
+      <c r="L100" s="11"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="11"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D101" s="12" t="s">
         <v>3</v>
       </c>
@@ -2409,13 +2525,14 @@
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="14"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J101" s="13"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="14"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="14"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D102" s="9" t="s">
         <v>4</v>
       </c>
@@ -2424,13 +2541,14 @@
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="11"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="11"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J102" s="10"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="11"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="11"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D103" s="12" t="s">
         <v>5</v>
       </c>
@@ -2439,13 +2557,14 @@
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="14"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J103" s="13"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="14"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="14"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D104" s="9" t="s">
         <v>6</v>
       </c>
@@ -2454,13 +2573,14 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="11"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="10"/>
-      <c r="O104" s="11"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J104" s="10"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="11"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="11"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D105" s="12" t="s">
         <v>7</v>
       </c>
@@ -2469,13 +2589,14 @@
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="14"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="14"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J105" s="13"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="14"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="14"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D106" s="9" t="s">
         <v>8</v>
       </c>
@@ -2484,13 +2605,14 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="11"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="11"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J106" s="10"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="11"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="11"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D107" s="3" t="s">
         <v>16</v>
       </c>
@@ -2499,13 +2621,14 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="5"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="5"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J107" s="4"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="5"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="5"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>25</v>
       </c>
@@ -2525,28 +2648,31 @@
         <v>11</v>
       </c>
       <c r="H109" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="J109" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J109" s="7" t="s">
+      <c r="K109" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K109" s="8" t="s">
+      <c r="L109" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M109" s="6" t="s">
+      <c r="N109" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N109" s="7" t="s">
+      <c r="O109" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O109" s="8" t="s">
+      <c r="P109" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -2559,13 +2685,14 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="11"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="11"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J110" s="10"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="11"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="11"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D111" s="12" t="s">
         <v>1</v>
       </c>
@@ -2574,13 +2701,14 @@
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="14"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="14"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J111" s="13"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="14"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="14"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D112" s="9" t="s">
         <v>2</v>
       </c>
@@ -2590,12 +2718,13 @@
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
-      <c r="K112" s="11"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="10"/>
-      <c r="O112" s="11"/>
-    </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="K112" s="10"/>
+      <c r="L112" s="11"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="11"/>
+    </row>
+    <row r="113" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D113" s="12" t="s">
         <v>3</v>
       </c>
@@ -2604,13 +2733,14 @@
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="14"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="14"/>
-    </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J113" s="13"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="14"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="14"/>
+    </row>
+    <row r="114" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D114" s="9" t="s">
         <v>4</v>
       </c>
@@ -2619,13 +2749,14 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="11"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="11"/>
-    </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J114" s="10"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="11"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="11"/>
+    </row>
+    <row r="115" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D115" s="12" t="s">
         <v>5</v>
       </c>
@@ -2634,13 +2765,14 @@
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="14"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="14"/>
-    </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J115" s="13"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="14"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="14"/>
+    </row>
+    <row r="116" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D116" s="9" t="s">
         <v>6</v>
       </c>
@@ -2649,13 +2781,14 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="11"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="10"/>
-      <c r="O116" s="11"/>
-    </row>
-    <row r="117" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J116" s="10"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="11"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="11"/>
+    </row>
+    <row r="117" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D117" s="12" t="s">
         <v>7</v>
       </c>
@@ -2664,13 +2797,14 @@
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="14"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="13"/>
-      <c r="O117" s="14"/>
-    </row>
-    <row r="118" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J117" s="13"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="14"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="14"/>
+    </row>
+    <row r="118" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D118" s="9" t="s">
         <v>8</v>
       </c>
@@ -2679,13 +2813,14 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="11"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="11"/>
-    </row>
-    <row r="119" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J118" s="10"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="11"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="11"/>
+    </row>
+    <row r="119" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D119" s="3" t="s">
         <v>16</v>
       </c>
@@ -2694,11 +2829,12 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="5"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="5"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="5"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2708,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BCB04A-7E08-4B59-BD88-58B67C9F3D5F}">
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD5"/>
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2719,13 +2855,13 @@
     <col min="1" max="1" width="21.7265625" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
     <col min="4" max="4" width="24.453125" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
-    <col min="13" max="13" width="30.26953125" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="15" width="30.90625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="30.26953125" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="16" max="16" width="30.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2745,28 +2881,31 @@
         <v>11</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2779,13 +2918,14 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="11"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J2" s="10"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="11"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2794,13 +2934,14 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J3" s="13"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2810,12 +2951,13 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
@@ -2824,13 +2966,14 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J5" s="13"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2839,13 +2982,14 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="11"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J6" s="10"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="11"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
@@ -2854,13 +2998,14 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J7" s="13"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
@@ -2869,13 +3014,14 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="11"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="11"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D9" s="12" t="s">
         <v>7</v>
       </c>
@@ -2884,13 +3030,14 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J9" s="13"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="14"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
@@ -2899,13 +3046,14 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="11"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J10" s="10"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="11"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2914,13 +3062,14 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="5"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J11" s="4"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="5"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -2940,28 +3089,31 @@
         <v>11</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2974,13 +3126,14 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="11"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J14" s="10"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="11"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D15" s="12" t="s">
         <v>1</v>
       </c>
@@ -2989,13 +3142,14 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="14"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J15" s="13"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="14"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
@@ -3005,12 +3159,13 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D17" s="12" t="s">
         <v>3</v>
       </c>
@@ -3019,13 +3174,14 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J17" s="13"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="14"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D18" s="9" t="s">
         <v>4</v>
       </c>
@@ -3034,13 +3190,14 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="11"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J18" s="10"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
@@ -3049,13 +3206,14 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J19" s="13"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="14"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
@@ -3064,13 +3222,14 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="11"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J20" s="10"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="11"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D21" s="12" t="s">
         <v>7</v>
       </c>
@@ -3079,13 +3238,14 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="14"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J21" s="13"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D22" s="9" t="s">
         <v>8</v>
       </c>
@@ -3094,13 +3254,14 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="11"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J22" s="10"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="11"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
@@ -3109,13 +3270,14 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="5"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J23" s="4"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="5"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3135,28 +3297,31 @@
         <v>11</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="N25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="P25" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -3169,13 +3334,14 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="11"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J26" s="10"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="11"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D27" s="12" t="s">
         <v>1</v>
       </c>
@@ -3184,13 +3350,14 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="14"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J27" s="13"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="14"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D28" s="9" t="s">
         <v>2</v>
       </c>
@@ -3200,12 +3367,13 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D29" s="12" t="s">
         <v>3</v>
       </c>
@@ -3214,13 +3382,14 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="14"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J29" s="13"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="14"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D30" s="9" t="s">
         <v>4</v>
       </c>
@@ -3229,13 +3398,14 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="11"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J30" s="10"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="11"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D31" s="12" t="s">
         <v>5</v>
       </c>
@@ -3244,13 +3414,14 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="14"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J31" s="13"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="14"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D32" s="9" t="s">
         <v>6</v>
       </c>
@@ -3259,13 +3430,14 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="11"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J32" s="10"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="11"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D33" s="12" t="s">
         <v>7</v>
       </c>
@@ -3274,13 +3446,14 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="14"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J33" s="13"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="14"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D34" s="9" t="s">
         <v>8</v>
       </c>
@@ -3289,13 +3462,14 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="11"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J34" s="10"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="11"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="s">
         <v>16</v>
       </c>
@@ -3304,13 +3478,14 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="5"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J35" s="4"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="5"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
@@ -3330,28 +3505,31 @@
         <v>11</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="L37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="N37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="O37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O37" s="8" t="s">
+      <c r="P37" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -3364,13 +3542,14 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="11"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J38" s="10"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="11"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D39" s="12" t="s">
         <v>1</v>
       </c>
@@ -3379,13 +3558,14 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="14"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J39" s="13"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="14"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D40" s="9" t="s">
         <v>2</v>
       </c>
@@ -3395,12 +3575,13 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="11"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D41" s="12" t="s">
         <v>3</v>
       </c>
@@ -3409,13 +3590,14 @@
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="14"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="14"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J41" s="13"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="14"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D42" s="9" t="s">
         <v>4</v>
       </c>
@@ -3424,13 +3606,14 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="11"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="11"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J42" s="10"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="11"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D43" s="12" t="s">
         <v>5</v>
       </c>
@@ -3439,13 +3622,14 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="14"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="14"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J43" s="13"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="14"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D44" s="9" t="s">
         <v>6</v>
       </c>
@@ -3454,13 +3638,14 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="11"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J44" s="10"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="11"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D45" s="12" t="s">
         <v>7</v>
       </c>
@@ -3469,13 +3654,14 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="14"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="14"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J45" s="13"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="14"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D46" s="9" t="s">
         <v>8</v>
       </c>
@@ -3484,13 +3670,14 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="11"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="11"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J46" s="10"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="11"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3499,13 +3686,14 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="5"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J47" s="4"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="5"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>25</v>
       </c>
@@ -3525,28 +3713,31 @@
         <v>11</v>
       </c>
       <c r="H49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="L49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="N49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="O49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O49" s="8" t="s">
+      <c r="P49" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -3559,13 +3750,14 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="11"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="11"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J50" s="10"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="11"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D51" s="12" t="s">
         <v>1</v>
       </c>
@@ -3574,13 +3766,14 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="14"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="14"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J51" s="13"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="14"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D52" s="9" t="s">
         <v>2</v>
       </c>
@@ -3590,12 +3783,13 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="11"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="11"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K52" s="10"/>
+      <c r="L52" s="11"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D53" s="12" t="s">
         <v>3</v>
       </c>
@@ -3604,13 +3798,14 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="14"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="14"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J53" s="13"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="14"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D54" s="9" t="s">
         <v>4</v>
       </c>
@@ -3619,13 +3814,14 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="11"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="11"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J54" s="10"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="11"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D55" s="12" t="s">
         <v>5</v>
       </c>
@@ -3634,13 +3830,14 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="14"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="14"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J55" s="13"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="14"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="14"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D56" s="9" t="s">
         <v>6</v>
       </c>
@@ -3649,13 +3846,14 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="11"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="11"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J56" s="10"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="11"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D57" s="12" t="s">
         <v>7</v>
       </c>
@@ -3664,13 +3862,14 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="14"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="14"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J57" s="13"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="14"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D58" s="9" t="s">
         <v>8</v>
       </c>
@@ -3679,13 +3878,14 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="11"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="11"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J58" s="10"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="11"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3694,13 +3894,14 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="5"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="5"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J59" s="4"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="5"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="5"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>25</v>
       </c>
@@ -3720,28 +3921,31 @@
         <v>11</v>
       </c>
       <c r="H61" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="L61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="6" t="s">
+      <c r="N61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="O61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="P61" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -3754,13 +3958,14 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="11"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="11"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J62" s="10"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="11"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D63" s="12" t="s">
         <v>1</v>
       </c>
@@ -3769,13 +3974,14 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="14"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="14"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J63" s="13"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="14"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="14"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D64" s="9" t="s">
         <v>2</v>
       </c>
@@ -3785,12 +3991,13 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
-      <c r="K64" s="11"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="11"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K64" s="10"/>
+      <c r="L64" s="11"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D65" s="12" t="s">
         <v>3</v>
       </c>
@@ -3799,13 +4006,14 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="14"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="14"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J65" s="13"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="14"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="14"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D66" s="9" t="s">
         <v>4</v>
       </c>
@@ -3814,13 +4022,14 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="11"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="11"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J66" s="10"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="11"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D67" s="12" t="s">
         <v>5</v>
       </c>
@@ -3829,13 +4038,14 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="14"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="14"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J67" s="13"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="14"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="14"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D68" s="9" t="s">
         <v>6</v>
       </c>
@@ -3844,13 +4054,14 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="11"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="11"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J68" s="10"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="11"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D69" s="12" t="s">
         <v>7</v>
       </c>
@@ -3859,13 +4070,14 @@
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="14"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="14"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J69" s="13"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="14"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="14"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D70" s="9" t="s">
         <v>8</v>
       </c>
@@ -3874,13 +4086,14 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="11"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="11"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J70" s="10"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="11"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D71" s="3" t="s">
         <v>16</v>
       </c>
@@ -3889,13 +4102,14 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="5"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="5"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J71" s="4"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="5"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="5"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>25</v>
       </c>
@@ -3915,28 +4129,31 @@
         <v>11</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="J73" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="K73" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="L73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M73" s="6" t="s">
+      <c r="N73" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N73" s="7" t="s">
+      <c r="O73" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="P73" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -3949,13 +4166,14 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="11"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="11"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J74" s="10"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="11"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D75" s="12" t="s">
         <v>1</v>
       </c>
@@ -3964,13 +4182,14 @@
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="14"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="14"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J75" s="13"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="14"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="14"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D76" s="9" t="s">
         <v>2</v>
       </c>
@@ -3980,12 +4199,13 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
-      <c r="K76" s="11"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="11"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K76" s="10"/>
+      <c r="L76" s="11"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D77" s="12" t="s">
         <v>3</v>
       </c>
@@ -3994,13 +4214,14 @@
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="14"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="14"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J77" s="13"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="14"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="14"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D78" s="9" t="s">
         <v>4</v>
       </c>
@@ -4009,13 +4230,14 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="11"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="11"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J78" s="10"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="11"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D79" s="12" t="s">
         <v>5</v>
       </c>
@@ -4024,13 +4246,14 @@
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="14"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="14"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J79" s="13"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="14"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="14"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D80" s="9" t="s">
         <v>6</v>
       </c>
@@ -4039,13 +4262,14 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="11"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="11"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J80" s="10"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="11"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D81" s="12" t="s">
         <v>7</v>
       </c>
@@ -4054,13 +4278,14 @@
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="14"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="14"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J81" s="13"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="14"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="14"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D82" s="9" t="s">
         <v>8</v>
       </c>
@@ -4069,13 +4294,14 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="11"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="11"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J82" s="10"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="11"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4084,13 +4310,14 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="5"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="5"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J83" s="4"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="5"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>25</v>
       </c>
@@ -4110,28 +4337,31 @@
         <v>11</v>
       </c>
       <c r="H85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="K85" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="L85" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M85" s="6" t="s">
+      <c r="N85" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N85" s="7" t="s">
+      <c r="O85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O85" s="8" t="s">
+      <c r="P85" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -4144,13 +4374,14 @@
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="11"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="11"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J86" s="10"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="11"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D87" s="12" t="s">
         <v>1</v>
       </c>
@@ -4159,13 +4390,14 @@
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="14"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="14"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J87" s="13"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="14"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="14"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D88" s="9" t="s">
         <v>2</v>
       </c>
@@ -4175,12 +4407,13 @@
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
-      <c r="K88" s="11"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="11"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K88" s="10"/>
+      <c r="L88" s="11"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D89" s="12" t="s">
         <v>3</v>
       </c>
@@ -4189,13 +4422,14 @@
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="14"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="14"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J89" s="13"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="14"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="14"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D90" s="9" t="s">
         <v>4</v>
       </c>
@@ -4204,13 +4438,14 @@
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="11"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="11"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J90" s="10"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="11"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="11"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D91" s="12" t="s">
         <v>5</v>
       </c>
@@ -4219,13 +4454,14 @@
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="14"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="14"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J91" s="13"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="14"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="14"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D92" s="9" t="s">
         <v>6</v>
       </c>
@@ -4234,13 +4470,14 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="11"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="11"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J92" s="10"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="11"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D93" s="12" t="s">
         <v>7</v>
       </c>
@@ -4249,13 +4486,14 @@
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="14"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="14"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J93" s="13"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="14"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="14"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D94" s="9" t="s">
         <v>8</v>
       </c>
@@ -4264,13 +4502,14 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="11"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="11"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J94" s="10"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="11"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D95" s="3" t="s">
         <v>16</v>
       </c>
@@ -4279,13 +4518,14 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="5"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="5"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J95" s="4"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="5"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="5"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>25</v>
       </c>
@@ -4305,28 +4545,31 @@
         <v>11</v>
       </c>
       <c r="H97" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="J97" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="K97" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="L97" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M97" s="6" t="s">
+      <c r="N97" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N97" s="7" t="s">
+      <c r="O97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O97" s="8" t="s">
+      <c r="P97" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
@@ -4339,13 +4582,14 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="11"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="11"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J98" s="10"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="11"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D99" s="12" t="s">
         <v>1</v>
       </c>
@@ -4354,13 +4598,14 @@
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="14"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="14"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J99" s="13"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="14"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="14"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D100" s="9" t="s">
         <v>2</v>
       </c>
@@ -4370,12 +4615,13 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="11"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="11"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K100" s="10"/>
+      <c r="L100" s="11"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="11"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D101" s="12" t="s">
         <v>3</v>
       </c>
@@ -4384,13 +4630,14 @@
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="14"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="14"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J101" s="13"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="14"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="14"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D102" s="9" t="s">
         <v>4</v>
       </c>
@@ -4399,13 +4646,14 @@
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="11"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="11"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J102" s="10"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="11"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="11"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D103" s="12" t="s">
         <v>5</v>
       </c>
@@ -4414,13 +4662,14 @@
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="14"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="14"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J103" s="13"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="14"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="14"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D104" s="9" t="s">
         <v>6</v>
       </c>
@@ -4429,13 +4678,14 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="11"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="10"/>
-      <c r="O104" s="11"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J104" s="10"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="11"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="11"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D105" s="12" t="s">
         <v>7</v>
       </c>
@@ -4444,13 +4694,14 @@
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="14"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="14"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J105" s="13"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="14"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="14"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D106" s="9" t="s">
         <v>8</v>
       </c>
@@ -4459,13 +4710,14 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="11"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="11"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J106" s="10"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="11"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="11"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D107" s="3" t="s">
         <v>16</v>
       </c>
@@ -4474,13 +4726,14 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="5"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="5"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J107" s="4"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="5"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="5"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>25</v>
       </c>
@@ -4500,28 +4753,31 @@
         <v>11</v>
       </c>
       <c r="H109" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="J109" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J109" s="7" t="s">
+      <c r="K109" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K109" s="8" t="s">
+      <c r="L109" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M109" s="6" t="s">
+      <c r="N109" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N109" s="7" t="s">
+      <c r="O109" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O109" s="8" t="s">
+      <c r="P109" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -4534,13 +4790,14 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="11"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="11"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J110" s="10"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="11"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="11"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D111" s="12" t="s">
         <v>1</v>
       </c>
@@ -4549,13 +4806,14 @@
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="14"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="14"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J111" s="13"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="14"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="14"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D112" s="9" t="s">
         <v>2</v>
       </c>
@@ -4565,12 +4823,13 @@
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
-      <c r="K112" s="11"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="10"/>
-      <c r="O112" s="11"/>
-    </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="K112" s="10"/>
+      <c r="L112" s="11"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="11"/>
+    </row>
+    <row r="113" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D113" s="12" t="s">
         <v>3</v>
       </c>
@@ -4579,13 +4838,14 @@
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="14"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="14"/>
-    </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J113" s="13"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="14"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="14"/>
+    </row>
+    <row r="114" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D114" s="9" t="s">
         <v>4</v>
       </c>
@@ -4594,13 +4854,14 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="11"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="11"/>
-    </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J114" s="10"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="11"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="11"/>
+    </row>
+    <row r="115" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D115" s="12" t="s">
         <v>5</v>
       </c>
@@ -4609,13 +4870,14 @@
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="14"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="14"/>
-    </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J115" s="13"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="14"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="14"/>
+    </row>
+    <row r="116" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D116" s="9" t="s">
         <v>6</v>
       </c>
@@ -4624,13 +4886,14 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="11"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="10"/>
-      <c r="O116" s="11"/>
-    </row>
-    <row r="117" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J116" s="10"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="11"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="11"/>
+    </row>
+    <row r="117" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D117" s="12" t="s">
         <v>7</v>
       </c>
@@ -4639,13 +4902,14 @@
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="14"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="13"/>
-      <c r="O117" s="14"/>
-    </row>
-    <row r="118" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J117" s="13"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="14"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="14"/>
+    </row>
+    <row r="118" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D118" s="9" t="s">
         <v>8</v>
       </c>
@@ -4654,13 +4918,14 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="11"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="11"/>
-    </row>
-    <row r="119" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="J118" s="10"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="11"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="11"/>
+    </row>
+    <row r="119" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D119" s="3" t="s">
         <v>16</v>
       </c>
@@ -4669,11 +4934,12 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="5"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="5"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="5"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pyfair/static/data_entry.xlsx
+++ b/pyfair/static/data_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theon\development\pyfair\pyfair\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC115E-3BBB-45E9-B814-ECBEE21C5BFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3646B-E53E-4B60-9FC3-E3E408AA42DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19030" windowHeight="14070" xr2:uid="{76265505-8B04-4CE4-A2A8-932A5C405433}"/>
+    <workbookView xWindow="-11050" yWindow="4720" windowWidth="19030" windowHeight="14070" activeTab="1" xr2:uid="{76265505-8B04-4CE4-A2A8-932A5C405433}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="3" r:id="rId1"/>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA18B4-909D-485F-BD49-3CA8F97B191F}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78B95C9-ABB7-49B9-AE9D-BEB6D66B5BF4}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/pyfair/static/data_entry.xlsx
+++ b/pyfair/static/data_entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theon\development\pyfair\pyfair\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3646B-E53E-4B60-9FC3-E3E408AA42DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D757FCE-AC0C-4288-9144-E679854C5BC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11050" yWindow="4720" windowWidth="19030" windowHeight="14070" activeTab="1" xr2:uid="{76265505-8B04-4CE4-A2A8-932A5C405433}"/>
+    <workbookView xWindow="0" yWindow="370" windowWidth="19030" windowHeight="14070" xr2:uid="{76265505-8B04-4CE4-A2A8-932A5C405433}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="33">
   <si>
     <t>Loss Event Frequency</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Model Name</t>
-  </si>
-  <si>
-    <t>Author</t>
   </si>
   <si>
     <t>Number of Simulations</t>
@@ -660,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA18B4-909D-485F-BD49-3CA8F97B191F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,63 +672,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="14">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="18" t="s">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="C7" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C8" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="C10" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78B95C9-ABB7-49B9-AE9D-BEB6D66B5BF4}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -758,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>20</v>
@@ -776,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>12</v>
@@ -966,10 +959,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
@@ -984,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>12</v>
@@ -1174,10 +1167,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>20</v>
@@ -1192,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>12</v>
@@ -1382,10 +1375,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>20</v>
@@ -1400,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>12</v>
@@ -1590,10 +1583,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>20</v>
@@ -1608,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>12</v>
@@ -1798,10 +1791,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>20</v>
@@ -1816,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>12</v>
@@ -2006,10 +1999,10 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>20</v>
@@ -2024,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>12</v>
@@ -2214,10 +2207,10 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>20</v>
@@ -2232,7 +2225,7 @@
         <v>11</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>12</v>
@@ -2422,10 +2415,10 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>20</v>
@@ -2440,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>12</v>
@@ -2630,10 +2623,10 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>20</v>
@@ -2648,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>12</v>
@@ -2863,10 +2856,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>20</v>
@@ -2881,7 +2874,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>12</v>
@@ -3071,10 +3064,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
@@ -3089,7 +3082,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>12</v>
@@ -3279,10 +3272,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>20</v>
@@ -3297,7 +3290,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>12</v>
@@ -3487,10 +3480,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>20</v>
@@ -3505,7 +3498,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>12</v>
@@ -3695,10 +3688,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>20</v>
@@ -3713,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>12</v>
@@ -3903,10 +3896,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>20</v>
@@ -3921,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>12</v>
@@ -4111,10 +4104,10 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>20</v>
@@ -4129,7 +4122,7 @@
         <v>11</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>12</v>
@@ -4319,10 +4312,10 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>20</v>
@@ -4337,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>12</v>
@@ -4527,10 +4520,10 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>20</v>
@@ -4545,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>12</v>
@@ -4735,10 +4728,10 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>20</v>
@@ -4753,7 +4746,7 @@
         <v>11</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>12</v>
